--- a/report/reliability/by-unidade/Instituto de Matemática - IM.xlsx
+++ b/report/reliability/by-unidade/Instituto de Matemática - IM.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="50">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -80,16 +80,16 @@
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -175,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="481">
+  <fonts count="480">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1016,6 +1016,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1842,11 +1847,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2227,11 +2227,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3137,7 +3132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="803">
+  <cellXfs count="802">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3400,7 +3395,6 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3428,13 +3422,14 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3443,7 +3438,6 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3459,13 +3453,14 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3473,7 +3468,6 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3489,20 +3483,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3518,20 +3512,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3559,13 +3553,14 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3574,7 +3569,6 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3590,13 +3584,14 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3604,7 +3599,6 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3620,20 +3614,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3649,13 +3643,14 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3791,6 +3786,7 @@
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3818,14 +3814,13 @@
     <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3834,6 +3829,7 @@
     <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3849,14 +3845,13 @@
     <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3864,6 +3859,7 @@
     <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3879,20 +3875,20 @@
     <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3908,19 +3904,19 @@
     <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3948,14 +3944,13 @@
     <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3964,6 +3959,7 @@
     <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3979,14 +3975,13 @@
     <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3994,6 +3989,7 @@
     <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4009,20 +4005,20 @@
     <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4038,21 +4034,19 @@
     <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4128,31 +4122,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.47879117080637984</v>
+        <v>0.4591581605287695</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.4825148952717177</v>
+        <v>0.5029590776142481</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8472384203970896</v>
+        <v>0.8279735731898609</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.07209962026888289</v>
+        <v>0.07776775487112189</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>0.9324227709415392</v>
+        <v>1.011906776609237</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.1286148803880404</v>
+        <v>0.13277218602623303</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.5382882882882885</v>
+        <v>2.0135135135135136</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.5184090224728423</v>
+        <v>0.4793230475548308</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.04804562860321799</v>
+        <v>0.007699903168195037</v>
       </c>
     </row>
     <row r="7">
@@ -4202,28 +4196,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.4957426936996536</v>
+        <v>0.48447599729547</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.502426572411725</v>
+        <v>0.547816871038381</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8286067572495553</v>
+        <v>0.8465564857265373</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.08407779683903449</v>
+        <v>0.09920927357352463</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>1.0097536254035364</v>
+        <v>1.2114933883012675</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.12551961209783094</v>
+        <v>0.12759251709540675</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.06704495871745131</v>
+        <v>0.11004361088228318</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.050300231281250274</v>
+        <v>0.03539718646512539</v>
       </c>
     </row>
     <row r="12">
@@ -4231,28 +4225,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.45681276898006945</v>
+        <v>0.43891360680584757</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.4461429465480782</v>
+        <v>0.4819216183362524</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.7980359819131154</v>
+        <v>0.8200230527824867</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.06823248968451832</v>
+        <v>0.07797095524341305</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>0.8055200232036153</v>
+        <v>0.9302098589572835</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.13471767221166428</v>
+        <v>0.13822183385938674</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.07288662759756967</v>
+        <v>0.1182624237076485</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.0448435970694669</v>
+        <v>-0.01679842102263232</v>
       </c>
     </row>
     <row r="13">
@@ -4260,28 +4254,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.4309323534620153</v>
+        <v>0.4122957314053679</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.4294252438316106</v>
+        <v>0.43606593788881004</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.7444946607710321</v>
+        <v>0.7803117732478676</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.06403838496475953</v>
+        <v>0.06567910320826129</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>0.7526187220678191</v>
+        <v>0.773256958901042</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.14095833890020903</v>
+        <v>0.14597181889324362</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.06571359685003707</v>
+        <v>0.09060755210122527</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.04634730306582729</v>
+        <v>0.03539718646512539</v>
       </c>
     </row>
     <row r="14">
@@ -4289,28 +4283,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.4063851061803637</v>
+        <v>0.3712082415292086</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.41290749921688374</v>
+        <v>0.4420630144377129</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.7504228929516831</v>
+        <v>0.7862811176593937</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.060094892426604964</v>
+        <v>0.0671892634307397</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>0.7033091014893066</v>
+        <v>0.7923171000972508</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.14795603679604002</v>
+        <v>0.1561677845224599</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.06479070460959774</v>
+        <v>0.08804056600545038</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.0448435970694669</v>
+        <v>-0.009022199366012777</v>
       </c>
     </row>
     <row r="15">
@@ -4318,28 +4312,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.4207470877057861</v>
+        <v>0.3825669781931465</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.46539285669120767</v>
+        <v>0.4360554924752064</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.7785966066327279</v>
+        <v>0.7686178165738089</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.07333558432145679</v>
+        <v>0.06567649668506713</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>0.8705324321160328</v>
+        <v>0.7732241145305159</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.14389237056893045</v>
+        <v>0.1528941413902932</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.05600772006746482</v>
+        <v>0.08707333414319951</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.050300231281250274</v>
+        <v>-0.009022199366012777</v>
       </c>
     </row>
     <row r="16">
@@ -4347,28 +4341,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.43178596386143564</v>
+        <v>0.4378757610350077</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.4599557991594188</v>
+        <v>0.4846834597016711</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.7718341714508379</v>
+        <v>0.8071328701400141</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.07186313047682502</v>
+        <v>0.07876977587286667</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>0.8517002838721268</v>
+        <v>0.9405548275649688</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.14074719012674716</v>
+        <v>0.13961082165920297</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.05587344005471964</v>
+        <v>0.09300923378232895</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.0448435970694669</v>
+        <v>0.024773600836726382</v>
       </c>
     </row>
     <row r="17">
@@ -4376,28 +4370,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.45990892450555837</v>
+        <v>0.419882147533828</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.4848578132241811</v>
+        <v>0.4626334100154242</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8187875049664374</v>
+        <v>0.7892176820977657</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.07882044568679233</v>
+        <v>0.07258513660507682</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>0.9412116220937324</v>
+        <v>0.8609270070711008</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.13394469407026927</v>
+        <v>0.14201042164227076</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.06108447329973724</v>
+        <v>0.09517769099676901</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.05123546346717041</v>
+        <v>0.021881287817871554</v>
       </c>
     </row>
     <row r="18">
@@ -4405,28 +4399,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.4556402076091615</v>
+        <v>0.44265418874732226</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.4666825084775844</v>
+        <v>0.466208895764199</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.808916712394228</v>
+        <v>0.8062101179244536</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.07368855506512827</v>
+        <v>0.073558762918633</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>0.8750556955208535</v>
+        <v>0.8733920293251127</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.13428057894283146</v>
+        <v>0.13580276903195457</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.06076106708040433</v>
+        <v>0.09708014013321135</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.04634730306582729</v>
+        <v>-0.009022199366012777</v>
       </c>
     </row>
     <row r="19">
@@ -4434,28 +4428,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.5107403415685625</v>
+        <v>0.514602798197771</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.4735252408630958</v>
+        <v>0.5310951033970442</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8197483125225292</v>
+        <v>0.8426219368820111</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.07558568544971749</v>
+        <v>0.09335393429874107</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>0.8994262927996522</v>
+        <v>1.1326286145541105</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.11772152121264222</v>
+        <v>0.1154871467598576</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.06351120210680279</v>
+        <v>0.10514601679600875</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.04634730306582729</v>
+        <v>0.021881287817871554</v>
       </c>
     </row>
     <row r="20">
@@ -4463,28 +4457,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.4438061278394083</v>
+        <v>0.425437325328641</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.42913084566024623</v>
+        <v>0.4732392681563102</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.820940613513482</v>
+        <v>0.8173279688435917</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.06396639983881536</v>
+        <v>0.07550557080438361</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>0.7517148936809577</v>
+        <v>0.8983951147989869</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.13506245265805739</v>
+        <v>0.1375872937807106</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.06732419780818984</v>
+        <v>0.1118550780552905</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.03539718646512539</v>
+        <v>-0.009022199366012777</v>
       </c>
     </row>
     <row r="21">
@@ -4492,28 +4486,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.4734844979176308</v>
+        <v>0.44925783397471153</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.46072661755560723</v>
+        <v>0.49612359147356394</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8123788319442692</v>
+        <v>0.7962176563381276</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.07207035834871217</v>
+        <v>0.08215647845627752</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>0.8543470390977715</v>
+        <v>0.9846136534243686</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.12782608666514217</v>
+        <v>0.13198560585426475</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.060870454358914555</v>
+        <v>0.10463535635222324</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.05123546346717041</v>
+        <v>0.03539718646512539</v>
       </c>
     </row>
     <row r="22">
@@ -4521,28 +4515,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.4789140421305302</v>
+        <v>0.44057432602038255</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.48691926527157914</v>
+        <v>0.4941340299894847</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8289328238619876</v>
+        <v>0.8061344683563008</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.07942172012422995</v>
+        <v>0.08155830735647827</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>0.9490110080420592</v>
+        <v>0.9768082047092694</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.12863307420429665</v>
+        <v>0.13670044844457513</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.06447539005151857</v>
+        <v>0.11040270690564567</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.050300231281250274</v>
+        <v>-0.00648148148148148</v>
       </c>
     </row>
     <row r="23">
@@ -4592,16 +4586,16 @@
         <v>37.0</v>
       </c>
       <c r="C27" t="n" s="85">
-        <v>0.07082415639420335</v>
+        <v>0.035311803065267044</v>
       </c>
       <c r="D27" t="n" s="86">
-        <v>0.24453108274956945</v>
+        <v>0.14329660930355878</v>
       </c>
       <c r="E27" t="n" s="87">
-        <v>0.16744513358356644</v>
+        <v>0.00667398114824193</v>
       </c>
       <c r="F27" t="n" s="88">
-        <v>-0.04510690433317813</v>
+        <v>-0.08969301587278715</v>
       </c>
       <c r="G27" t="n" s="89">
         <v>3.6216216216216215</v>
@@ -4618,16 +4612,16 @@
         <v>37.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.33241460644639415</v>
+        <v>0.3190379629293364</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.4324069417474019</v>
+        <v>0.3908495639690811</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.3853552338525173</v>
+        <v>0.301611260604245</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.20512521281191895</v>
+        <v>0.1798720701375324</v>
       </c>
       <c r="G28" t="n" s="89">
         <v>4.27027027027027</v>
@@ -4644,22 +4638,22 @@
         <v>37.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.45276788440746335</v>
+        <v>0.5725633530115577</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.48213592580985165</v>
+        <v>0.5341228797899031</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.4841967454485976</v>
+        <v>0.5707284663659353</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.30473783514258423</v>
+        <v>0.5163168844492287</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.4324324324324325</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0419143849595252</v>
+        <v>0.45022516889074815</v>
       </c>
     </row>
     <row r="30">
@@ -4670,22 +4664,22 @@
         <v>37.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5344124399715167</v>
+        <v>0.5728883730451426</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.5288934320438765</v>
+        <v>0.5165205150790005</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5314719216578702</v>
+        <v>0.5591238246343094</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.3511017805713792</v>
+        <v>0.3442912429523424</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.945945945945946</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.3528970139409469</v>
+        <v>1.5663503610155212</v>
       </c>
     </row>
     <row r="31">
@@ -4696,22 +4690,22 @@
         <v>37.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5111266591707897</v>
+        <v>0.5822862127999449</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.3719001759830802</v>
+        <v>0.5341532613157891</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.3965380132251154</v>
+        <v>0.5825303463707624</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.28886706326105344</v>
+        <v>0.30435950679725987</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.8648648648648649</v>
+        <v>1.054054054054054</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.5663503610155212</v>
+        <v>1.8551122449710264</v>
       </c>
     </row>
     <row r="32">
@@ -4722,22 +4716,22 @@
         <v>37.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.522511057352523</v>
+        <v>0.36652495545376956</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.38935888020365483</v>
+        <v>0.381538543953497</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.4158573589987155</v>
+        <v>0.36983678674427584</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.2544169958198994</v>
+        <v>0.30455536899542346</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.054054054054054</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.8551122449710264</v>
+        <v>0.3970612769556579</v>
       </c>
     </row>
     <row r="33">
@@ -4748,16 +4742,16 @@
         <v>37.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.395847198023551</v>
+        <v>0.4576306379807281</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.30686684905241607</v>
+        <v>0.45362644189742757</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.26762762333105333</v>
+        <v>0.4561409192737309</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.172130383861771</v>
+        <v>0.22263943041975975</v>
       </c>
       <c r="G33" t="n" s="89">
         <v>2.5405405405405403</v>
@@ -4774,16 +4768,16 @@
         <v>37.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.4645938075110345</v>
+        <v>0.46790746924590076</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.36771504526761245</v>
+        <v>0.4422778941021335</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.33692123401553614</v>
+        <v>0.42048415375450504</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.19398249951214297</v>
+        <v>0.17254089713209242</v>
       </c>
       <c r="G34" t="n" s="89">
         <v>2.918918918918919</v>
@@ -4800,16 +4794,16 @@
         <v>37.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.25317120085161665</v>
+        <v>0.21362614225081505</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.3452210035201163</v>
+        <v>0.21154620023217036</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.2867427439602284</v>
+        <v>0.09394185228648216</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.009108545105776245</v>
+        <v>-0.05178642168717147</v>
       </c>
       <c r="G35" t="n" s="89">
         <v>1.4594594594594594</v>
@@ -4826,16 +4820,16 @@
         <v>37.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.4095444101678065</v>
+        <v>0.40432675223976244</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.4829894445987235</v>
+        <v>0.4195859823983518</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.41923633667555077</v>
+        <v>0.3430788706611206</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.2359809419161817</v>
+        <v>0.21463398540185474</v>
       </c>
       <c r="G36" t="n" s="89">
         <v>2.5135135135135136</v>
@@ -4852,16 +4846,16 @@
         <v>37.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.2999525535534776</v>
+        <v>0.3268511071968531</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.3869018048021221</v>
+        <v>0.3420632795721332</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.3436504187352969</v>
+        <v>0.29924431613251423</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.11528403889922617</v>
+        <v>0.12821476958543257</v>
       </c>
       <c r="G37" t="n" s="89">
         <v>2.054054054054054</v>
@@ -4878,16 +4872,16 @@
         <v>37.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.26444990477001035</v>
+        <v>0.3453357106497701</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.29973761196502824</v>
+        <v>0.34903553701969603</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.2346359213773476</v>
+        <v>0.2902186343358196</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.089017994977018</v>
+        <v>0.1604350630112091</v>
       </c>
       <c r="G38" t="n" s="89">
         <v>1.7837837837837838</v>
@@ -4992,22 +4986,22 @@
         <v>20</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.05405405405405406</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.0</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.02702702702702703</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.35135135135135137</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5135135135135135</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.05405405405405406</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5018,22 +5012,22 @@
         <v>21</v>
       </c>
       <c r="B46" t="n" s="109">
+        <v>0.7297297297297297</v>
+      </c>
+      <c r="C46" t="n" s="110">
         <v>0.05405405405405406</v>
       </c>
-      <c r="C46" t="n" s="110">
-        <v>0.0</v>
-      </c>
       <c r="D46" t="n" s="111">
-        <v>0.02702702702702703</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.2972972972972973</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.10810810810810811</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5135135135135135</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,19 +5041,19 @@
         <v>0.7297297297297297</v>
       </c>
       <c r="C47" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="D47" t="n" s="111">
         <v>0.05405405405405406</v>
       </c>
-      <c r="D47" t="n" s="111">
-        <v>0.0</v>
-      </c>
       <c r="E47" t="n" s="112">
-        <v>0.05405405405405406</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.16216216216216217</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.0</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5070,22 +5064,22 @@
         <v>23</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.7297297297297297</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.05405405405405406</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.02702702702702703</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.08108108108108109</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.10810810810810811</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5323,31 +5317,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.5672990063233965</v>
+        <v>0.8759987707437</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.5520245997877345</v>
+        <v>0.9820396947780197</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.7203018606162517</v>
+        <v>0.9796292558783962</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.23551279030788633</v>
+        <v>0.9479874083759666</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>1.2322654313745065</v>
+        <v>54.67834107719783</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.1092960846339879</v>
+        <v>0.006210232283334926</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.8175675675675675</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.6709462861652331</v>
+        <v>1.2761773499904425</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.18581675378642265</v>
+        <v>0.9465077724724639</v>
       </c>
     </row>
     <row r="7">
@@ -5394,118 +5388,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.605419450631032</v>
+        <v>0.9815823605706875</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.5628282438647599</v>
+        <v>0.988703767013875</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.6235416723169406</v>
+        <v>0.9776598930804481</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.30028019953662594</v>
+        <v>0.9776598930804481</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>1.287430480048322</v>
+        <v>87.52508630339696</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.09736074973870563</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.14573066409142688</v>
-      </c>
+        <v>0.0047084015487214425</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.18469257157798086</v>
+        <v>0.9776598930804481</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.5816162697350815</v>
+        <v>0.6051724137931034</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.5363508531113832</v>
+        <v>0.9725188728840317</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.6349319369509485</v>
+        <v>0.9465077724724639</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.2782915622574495</v>
+        <v>0.9465077724724638</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>1.1568032783207767</v>
+        <v>35.38860938199775</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.10184170999329625</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.16826166249179358</v>
-      </c>
+        <v>0.021312344779917003</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.18694093599486442</v>
+        <v>0.9465077724724639</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.2970414201183431</v>
+        <v>0.6562856057728828</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.3805902087025226</v>
+        <v>0.9582218628420489</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.36807166256683066</v>
+        <v>0.9197945595749878</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.16999592627351903</v>
+        <v>0.9197945595749877</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>0.6144400912767305</v>
+        <v>22.935964311172757</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.19581537759669024</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.058328165706457734</v>
-      </c>
+        <v>0.026985429387310824</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.18469257157798086</v>
+        <v>0.9197945595749877</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.36818851251840945</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.4185034265082082</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.37851127359658954</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.19348347316395106</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>0.719700589111237</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.18498260203767639</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.04290988261874488</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.18694093599486442</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5514,268 +5478,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>37.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9525384195340277</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9724426075556653</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9470508444601825</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9395027246633217</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.45022516889074815</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>37.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.42768960043939047</v>
+        <v>0.9910153059954087</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.5788040872001817</v>
+        <v>0.9830115029077746</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.40954943730298676</v>
+        <v>0.9781372634633989</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.17336897695612313</v>
+        <v>0.9745866894429566</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.6216216216216215</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.7207770248277338</v>
+        <v>1.5663503610155212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>37.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.5099006584739104</v>
+        <v>0.9958416811985041</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.6040523525310902</v>
+        <v>0.9920744220966433</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.42237483557660827</v>
+        <v>0.9921642815439324</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.2238243003430372</v>
+        <v>0.9844946389203637</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.27027027027027</v>
+        <v>1.054054054054054</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>0.8382736442849094</v>
+        <v>1.8551122449710264</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>20</v>
       </c>
-      <c r="B21" t="n" s="199">
-        <v>37.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8014202870698262</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.7284018934683621</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7071778381077748</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.5683953203514279</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.4324324324324325</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0419143849595252</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="B25" t="n" s="224">
+        <v>0.7297297297297297</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>37.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8227298062884242</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.7014325179526095</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.6783042692590106</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.4889621877831525</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.945945945945946</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.3528970139409469</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>43</v>
+      <c r="B26" t="n" s="224">
+        <v>0.7297297297297297</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.0</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C27" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="226">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="E27" t="n" s="227">
         <v>0.02702702702702703</v>
       </c>
-      <c r="D27" t="n" s="226">
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="E27" t="n" s="227">
-        <v>0.43243243243243246</v>
-      </c>
       <c r="F27" t="n" s="228">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="G27" t="n" s="229">
         <v>0.10810810810810811</v>
       </c>
-      <c r="G27" t="n" s="229">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.5135135135135135</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.35135135135135137</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.5135135135135135</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.5135135135135135</v>
-      </c>
-      <c r="G30" t="n" s="229">
+      <c r="H27" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5805,7 +5727,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="231">
+      <c r="A1" t="s" s="232">
         <v>45</v>
       </c>
     </row>
@@ -5820,66 +5742,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="245">
+      <c r="A4" t="s" s="246">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="259">
+      <c r="A5" t="s" s="260">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="259">
+      <c r="B5" t="s" s="260">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="259">
+      <c r="C5" t="s" s="260">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="259">
+      <c r="D5" t="s" s="260">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="259">
+      <c r="E5" t="s" s="260">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="259">
+      <c r="F5" t="s" s="260">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="259">
+      <c r="G5" t="s" s="260">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="259">
+      <c r="H5" t="s" s="260">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="259">
+      <c r="I5" t="s" s="260">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="260">
-        <v>0.8697432666561662</v>
-      </c>
-      <c r="B6" t="n" s="261">
-        <v>0.8802051412016874</v>
-      </c>
-      <c r="C6" t="n" s="262">
-        <v>0.7860414202528697</v>
-      </c>
-      <c r="D6" t="n" s="263">
-        <v>0.7860414202528698</v>
-      </c>
-      <c r="E6" t="n" s="264">
-        <v>7.347603645358494</v>
-      </c>
-      <c r="F6" t="n" s="265">
-        <v>0.04058405979366774</v>
-      </c>
-      <c r="G6" t="n" s="266">
-        <v>2.72972972972973</v>
-      </c>
-      <c r="H6" t="n" s="267">
-        <v>1.5437805084461516</v>
-      </c>
-      <c r="I6" t="n" s="268">
-        <v>0.7860414202528697</v>
+      <c r="A6" t="n" s="261">
+        <v>0.7959456024402645</v>
+      </c>
+      <c r="B6" t="n" s="262">
+        <v>0.9273951136936959</v>
+      </c>
+      <c r="C6" t="n" s="263">
+        <v>0.8974115006780514</v>
+      </c>
+      <c r="D6" t="n" s="264">
+        <v>0.8098037022317722</v>
+      </c>
+      <c r="E6" t="n" s="265">
+        <v>12.77317768643312</v>
+      </c>
+      <c r="F6" t="n" s="266">
+        <v>0.027823861741180147</v>
+      </c>
+      <c r="G6" t="n" s="267">
+        <v>2.09009009009009</v>
+      </c>
+      <c r="H6" t="n" s="268">
+        <v>1.1457076325627957</v>
+      </c>
+      <c r="I6" t="n" s="269">
+        <v>0.793725393319377</v>
       </c>
     </row>
     <row r="7">
@@ -5893,86 +5815,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="272">
+      <c r="A9" t="s" s="273">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="286">
+      <c r="B10" t="s" s="287">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="286">
+      <c r="C10" t="s" s="287">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="286">
+      <c r="D10" t="s" s="287">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="286">
+      <c r="E10" t="s" s="287">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="286">
+      <c r="F10" t="s" s="287">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="286">
+      <c r="G10" t="s" s="287">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="286">
+      <c r="H10" t="s" s="287">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="286">
+      <c r="I10" t="s" s="287">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="282">
+      <c r="A11" t="s" s="283">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n" s="288">
+        <v>0.8697432666561662</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.8802051412016874</v>
+      </c>
+      <c r="D11" t="n" s="290">
+        <v>0.7860414202528697</v>
+      </c>
+      <c r="E11" t="n" s="291">
+        <v>0.7860414202528698</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>7.347603645358494</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.04058405979366774</v>
+      </c>
+      <c r="H11" s="294"/>
+      <c r="I11" t="n" s="295">
+        <v>0.7860414202528697</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="283">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="287">
-        <v>0.7860414202528697</v>
-      </c>
-      <c r="C11" t="n" s="288">
-        <v>0.7860414202528697</v>
-      </c>
-      <c r="D11" t="n" s="289">
-        <v>0.6178611143531485</v>
-      </c>
-      <c r="E11" t="n" s="290">
-        <v>0.7860414202528697</v>
-      </c>
-      <c r="F11" s="291"/>
-      <c r="G11" s="292"/>
-      <c r="H11" t="n" s="293">
-        <v>0.7860414202528697</v>
-      </c>
-      <c r="I11" t="n" s="294">
-        <v>0.7860414202528697</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="282">
+      <c r="B12" t="n" s="288">
+        <v>0.5004965243296924</v>
+      </c>
+      <c r="C12" t="n" s="289">
+        <v>0.8850021260506873</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.793725393319377</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.7937253933193769</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>7.695812936861484</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.0445656298080419</v>
+      </c>
+      <c r="H12" s="294"/>
+      <c r="I12" t="n" s="295">
+        <v>0.793725393319377</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="283">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="287">
-        <v>0.6178611143531485</v>
-      </c>
-      <c r="C12" t="n" s="288">
-        <v>0.7860414202528697</v>
-      </c>
-      <c r="D12" s="289"/>
-      <c r="E12" s="290"/>
-      <c r="F12" s="291"/>
-      <c r="G12" s="292"/>
-      <c r="H12" t="n" s="293">
-        <v>0.6178611143531485</v>
-      </c>
-      <c r="I12" t="n" s="294">
-        <v>0.7860414202528697</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="B13" t="n" s="288">
+        <v>0.600638977635783</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.9187110151741344</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.8496442931230701</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.8496442931230701</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>11.301789746078962</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.038731329909594096</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.84964429312307</v>
       </c>
     </row>
     <row r="14">
@@ -5981,174 +5933,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="298">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="299">
         <v>30</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="312">
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="312">
+      <c r="C17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="312">
+      <c r="D17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="312">
+      <c r="E17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="312">
+      <c r="F17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="312">
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="312">
+      <c r="H17" t="s" s="313">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="308">
+    <row r="18">
+      <c r="A18" t="s" s="309">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n" s="314">
+        <v>37.0</v>
+      </c>
+      <c r="C18" t="n" s="315">
+        <v>0.8933655559777054</v>
+      </c>
+      <c r="D18" t="n" s="316">
+        <v>0.9429293919266625</v>
+      </c>
+      <c r="E18" t="n" s="317">
+        <v>0.9062579137136532</v>
+      </c>
+      <c r="F18" t="n" s="318">
+        <v>0.8659086952044796</v>
+      </c>
+      <c r="G18" t="n" s="319">
+        <v>0.8108108108108109</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.3970612769556579</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="313">
+      <c r="B19" t="n" s="314">
         <v>37.0</v>
       </c>
-      <c r="C17" t="n" s="314">
-        <v>0.9327336843102811</v>
-      </c>
-      <c r="D17" t="n" s="315">
-        <v>0.944997730222901</v>
-      </c>
-      <c r="E17" t="n" s="316">
-        <v>0.8378253202804323</v>
-      </c>
-      <c r="F17" t="n" s="317">
-        <v>0.7860414202528696</v>
-      </c>
-      <c r="G17" t="n" s="318">
+      <c r="C19" t="n" s="315">
+        <v>0.9360250146912167</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9401884041305387</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.9004410130063725</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.8230564805115805</v>
+      </c>
+      <c r="G19" t="n" s="319">
         <v>2.5405405405405403</v>
       </c>
-      <c r="H17" t="n" s="319">
+      <c r="H19" t="n" s="320">
         <v>1.4642896380648687</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="308">
+    <row r="20">
+      <c r="A20" t="s" s="309">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="313">
+      <c r="B20" t="n" s="314">
         <v>37.0</v>
       </c>
-      <c r="C18" t="n" s="314">
-        <v>0.9560598045444318</v>
-      </c>
-      <c r="D18" t="n" s="315">
-        <v>0.944997730222901</v>
-      </c>
-      <c r="E18" t="n" s="316">
-        <v>0.8378253202804323</v>
-      </c>
-      <c r="F18" t="n" s="317">
-        <v>0.7860414202528696</v>
-      </c>
-      <c r="G18" t="n" s="318">
+      <c r="C20" t="n" s="315">
+        <v>0.9505189944618561</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.9202412985631494</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.8489737632176658</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.8083404435097591</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.918918918918919</v>
       </c>
-      <c r="H18" t="n" s="319">
+      <c r="H20" t="n" s="320">
         <v>1.8009006755629926</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="323">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>36</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="337">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="337">
+      <c r="C24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="337">
+      <c r="D24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="337">
+      <c r="E24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="337">
+      <c r="F24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="337">
+      <c r="G24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="337">
+      <c r="H24" t="s" s="338">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="333">
+    <row r="25">
+      <c r="A25" t="s" s="334">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n" s="339">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="C25" t="n" s="340">
+        <v>0.8108108108108109</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="338">
+      <c r="B26" t="n" s="339">
         <v>0.1891891891891892</v>
       </c>
-      <c r="C23" t="n" s="339">
+      <c r="C26" t="n" s="340">
         <v>0.08108108108108109</v>
       </c>
-      <c r="D23" t="n" s="340">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="341">
+      <c r="D26" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="342">
         <v>0.4594594594594595</v>
       </c>
-      <c r="F23" t="n" s="342">
+      <c r="F26" t="n" s="343">
         <v>0.2702702702702703</v>
       </c>
-      <c r="G23" t="n" s="343">
-        <v>0.0</v>
-      </c>
-      <c r="H23" t="n" s="344">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="333">
+      <c r="G26" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="334">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="338">
+      <c r="B27" t="n" s="339">
         <v>0.1891891891891892</v>
       </c>
-      <c r="C24" t="n" s="339">
+      <c r="C27" t="n" s="340">
         <v>0.02702702702702703</v>
       </c>
-      <c r="D24" t="n" s="340">
+      <c r="D27" t="n" s="341">
         <v>0.16216216216216217</v>
       </c>
-      <c r="E24" t="n" s="341">
+      <c r="E27" t="n" s="342">
         <v>0.16216216216216217</v>
       </c>
-      <c r="F24" t="n" s="342">
+      <c r="F27" t="n" s="343">
         <v>0.21621621621621623</v>
       </c>
-      <c r="G24" t="n" s="343">
+      <c r="G27" t="n" s="344">
         <v>0.24324324324324326</v>
       </c>
-      <c r="H24" t="n" s="344">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6178,7 +6187,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="346">
+      <c r="A1" t="s" s="347">
         <v>46</v>
       </c>
     </row>
@@ -6193,66 +6202,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="360">
+      <c r="A4" t="s" s="361">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="374">
+      <c r="A5" t="s" s="375">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="374">
+      <c r="B5" t="s" s="375">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="374">
+      <c r="C5" t="s" s="375">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="374">
+      <c r="D5" t="s" s="375">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="374">
+      <c r="E5" t="s" s="375">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="374">
+      <c r="F5" t="s" s="375">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="374">
+      <c r="G5" t="s" s="375">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="374">
+      <c r="H5" t="s" s="375">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="374">
+      <c r="I5" t="s" s="375">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="375">
-        <v>0.8157715839564923</v>
-      </c>
-      <c r="B6" t="n" s="376">
-        <v>0.8166340874675824</v>
-      </c>
-      <c r="C6" t="n" s="377">
-        <v>0.6900943138711639</v>
-      </c>
-      <c r="D6" t="n" s="378">
-        <v>0.6900943138711639</v>
-      </c>
-      <c r="E6" t="n" s="379">
-        <v>4.453576328278619</v>
-      </c>
-      <c r="F6" t="n" s="380">
-        <v>0.06036814264198454</v>
-      </c>
-      <c r="G6" t="n" s="381">
-        <v>1.9189189189189189</v>
-      </c>
-      <c r="H6" t="n" s="382">
-        <v>1.0508826548927117</v>
-      </c>
-      <c r="I6" t="n" s="383">
-        <v>0.690094313871164</v>
+      <c r="A6" t="n" s="376">
+        <v>0.5706760316066724</v>
+      </c>
+      <c r="B6" t="n" s="377">
+        <v>0.575320231397811</v>
+      </c>
+      <c r="C6" t="n" s="378">
+        <v>0.40382424463167677</v>
+      </c>
+      <c r="D6" t="n" s="379">
+        <v>0.40382424463167665</v>
+      </c>
+      <c r="E6" t="n" s="380">
+        <v>1.3547154207308882</v>
+      </c>
+      <c r="F6" t="n" s="381">
+        <v>0.13926195039800293</v>
+      </c>
+      <c r="G6" t="n" s="382">
+        <v>3.945945945945946</v>
+      </c>
+      <c r="H6" t="n" s="383">
+        <v>0.6538750282374702</v>
+      </c>
+      <c r="I6" t="n" s="384">
+        <v>0.40382424463167665</v>
       </c>
     </row>
     <row r="7">
@@ -6266,81 +6275,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="387">
+      <c r="A9" t="s" s="388">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="401">
+      <c r="B10" t="s" s="402">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="401">
+      <c r="C10" t="s" s="402">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="401">
+      <c r="D10" t="s" s="402">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="401">
+      <c r="E10" t="s" s="402">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="401">
+      <c r="F10" t="s" s="402">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="401">
+      <c r="G10" t="s" s="402">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="401">
+      <c r="H10" t="s" s="402">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="401">
+      <c r="I10" t="s" s="402">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="397">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="402">
-        <v>0.690094313871164</v>
-      </c>
-      <c r="C11" t="n" s="403">
-        <v>0.690094313871164</v>
-      </c>
-      <c r="D11" t="n" s="404">
-        <v>0.4762301620373125</v>
-      </c>
-      <c r="E11" t="n" s="405">
-        <v>0.690094313871164</v>
-      </c>
-      <c r="F11" s="406"/>
-      <c r="G11" s="407"/>
-      <c r="H11" t="n" s="408">
-        <v>0.690094313871164</v>
-      </c>
-      <c r="I11" t="n" s="409">
-        <v>0.690094313871164</v>
+      <c r="A11" t="s" s="398">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="403">
+        <v>0.4038242446316766</v>
+      </c>
+      <c r="C11" t="n" s="404">
+        <v>0.4038242446316766</v>
+      </c>
+      <c r="D11" t="n" s="405">
+        <v>0.16307402055234466</v>
+      </c>
+      <c r="E11" t="n" s="406">
+        <v>0.4038242446316766</v>
+      </c>
+      <c r="F11" s="407"/>
+      <c r="G11" s="408"/>
+      <c r="H11" t="n" s="409">
+        <v>0.4038242446316766</v>
+      </c>
+      <c r="I11" t="n" s="410">
+        <v>0.4038242446316766</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="397">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="402">
-        <v>0.4762301620373125</v>
-      </c>
-      <c r="C12" t="n" s="403">
-        <v>0.690094313871164</v>
-      </c>
-      <c r="D12" s="404"/>
-      <c r="E12" s="405"/>
-      <c r="F12" s="406"/>
-      <c r="G12" s="407"/>
-      <c r="H12" t="n" s="408">
-        <v>0.4762301620373125</v>
-      </c>
-      <c r="I12" t="n" s="409">
-        <v>0.690094313871164</v>
+      <c r="A12" t="s" s="398">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="403">
+        <v>0.16307402055234466</v>
+      </c>
+      <c r="C12" t="n" s="404">
+        <v>0.4038242446316766</v>
+      </c>
+      <c r="D12" s="405"/>
+      <c r="E12" s="406"/>
+      <c r="F12" s="407"/>
+      <c r="G12" s="408"/>
+      <c r="H12" t="n" s="409">
+        <v>0.16307402055234466</v>
+      </c>
+      <c r="I12" t="n" s="410">
+        <v>0.4038242446316766</v>
       </c>
     </row>
     <row r="13">
@@ -6354,84 +6363,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="413">
+      <c r="A15" t="s" s="414">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="427">
+      <c r="B16" t="s" s="428">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="427">
+      <c r="C16" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="427">
+      <c r="D16" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="427">
+      <c r="E16" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="427">
+      <c r="F16" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="427">
+      <c r="G16" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="427">
+      <c r="H16" t="s" s="428">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="423">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="428">
+      <c r="A17" t="s" s="424">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n" s="429">
         <v>37.0</v>
       </c>
-      <c r="C17" t="n" s="429">
-        <v>0.9242250143743651</v>
-      </c>
-      <c r="D17" t="n" s="430">
-        <v>0.919264465176144</v>
-      </c>
-      <c r="E17" t="n" s="431">
-        <v>0.763650599393622</v>
-      </c>
-      <c r="F17" t="n" s="432">
-        <v>0.690094313871164</v>
-      </c>
-      <c r="G17" t="n" s="433">
-        <v>2.054054054054054</v>
-      </c>
-      <c r="H17" t="n" s="434">
-        <v>1.177236546275168</v>
+      <c r="C17" t="n" s="430">
+        <v>0.8100112408949672</v>
+      </c>
+      <c r="D17" t="n" s="431">
+        <v>0.8378019588875634</v>
+      </c>
+      <c r="E17" t="n" s="432">
+        <v>0.5323994107735384</v>
+      </c>
+      <c r="F17" t="n" s="433">
+        <v>0.4038242446316767</v>
+      </c>
+      <c r="G17" t="n" s="434">
+        <v>3.6216216216216215</v>
+      </c>
+      <c r="H17" t="n" s="435">
+        <v>0.7207770248277338</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="423">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="428">
+      <c r="A18" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n" s="429">
         <v>37.0</v>
       </c>
-      <c r="C18" t="n" s="429">
-        <v>0.9141534663357929</v>
-      </c>
-      <c r="D18" t="n" s="430">
-        <v>0.919264465176144</v>
-      </c>
-      <c r="E18" t="n" s="431">
-        <v>0.763650599393622</v>
-      </c>
-      <c r="F18" t="n" s="432">
-        <v>0.6900943138711642</v>
-      </c>
-      <c r="G18" t="n" s="433">
-        <v>1.7837837837837838</v>
-      </c>
-      <c r="H18" t="n" s="434">
-        <v>1.1089317966988457</v>
+      <c r="C18" t="n" s="430">
+        <v>0.8635754793450295</v>
+      </c>
+      <c r="D18" t="n" s="431">
+        <v>0.8378019588875634</v>
+      </c>
+      <c r="E18" t="n" s="432">
+        <v>0.5323994107735377</v>
+      </c>
+      <c r="F18" t="n" s="433">
+        <v>0.4038242446316767</v>
+      </c>
+      <c r="G18" t="n" s="434">
+        <v>4.27027027027027</v>
+      </c>
+      <c r="H18" t="n" s="435">
+        <v>0.8382736442849094</v>
       </c>
     </row>
     <row r="19">
@@ -6445,74 +6454,65 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="438">
+      <c r="A21" t="s" s="439">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="452">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="452">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="452">
+      <c r="B22" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="452">
+      <c r="C22" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="452">
+      <c r="D22" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="452">
+      <c r="E22" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s" s="453">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="448">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="453">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="C23" t="n" s="454">
+      <c r="A23" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B23" t="n" s="454">
         <v>0.02702702702702703</v>
       </c>
-      <c r="D23" t="n" s="455">
-        <v>0.5405405405405406</v>
-      </c>
-      <c r="E23" t="n" s="456">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="F23" t="n" s="457">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="G23" t="n" s="458">
+      <c r="C23" t="n" s="455">
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="D23" t="n" s="456">
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="E23" t="n" s="457">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="F23" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="448">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="453">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="C24" t="n" s="454">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="D24" t="n" s="455">
-        <v>0.5675675675675675</v>
-      </c>
-      <c r="E24" t="n" s="456">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="F24" t="n" s="457">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G24" t="n" s="458">
+      <c r="A24" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="C24" t="n" s="455">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="D24" t="n" s="456">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="E24" t="n" s="457">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="F24" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
@@ -6592,31 +6592,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="489">
-        <v>0.9815823605706875</v>
+        <v>0.6130767053495612</v>
       </c>
       <c r="B6" t="n" s="490">
-        <v>0.988703767013875</v>
+        <v>0.6276175886902122</v>
       </c>
       <c r="C6" t="n" s="491">
-        <v>0.9776598930804481</v>
+        <v>0.457319755425327</v>
       </c>
       <c r="D6" t="n" s="492">
-        <v>0.9776598930804481</v>
+        <v>0.45731975542532677</v>
       </c>
       <c r="E6" t="n" s="493">
-        <v>87.52508630339696</v>
+        <v>1.6854114738735406</v>
       </c>
       <c r="F6" t="n" s="494">
-        <v>0.0047084015487214425</v>
+        <v>0.1219146401117511</v>
       </c>
       <c r="G6" t="n" s="495">
-        <v>0.9594594594594594</v>
+        <v>1.9864864864864864</v>
       </c>
       <c r="H6" t="n" s="496">
-        <v>1.7012184292865347</v>
+        <v>1.1516080935809723</v>
       </c>
       <c r="I6" t="n" s="497">
-        <v>0.9776598930804481</v>
+        <v>0.4573197554253268</v>
       </c>
     </row>
     <row r="7">
@@ -6663,48 +6663,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="511">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n" s="516">
-        <v>0.9776598930804481</v>
+        <v>0.4573197554253268</v>
       </c>
       <c r="C11" t="n" s="517">
-        <v>0.9776598930804481</v>
+        <v>0.4573197554253268</v>
       </c>
       <c r="D11" t="n" s="518">
-        <v>0.9558188665380732</v>
+        <v>0.209141358702281</v>
       </c>
       <c r="E11" t="n" s="519">
-        <v>0.9776598930804481</v>
+        <v>0.4573197554253268</v>
       </c>
       <c r="F11" s="520"/>
       <c r="G11" s="521"/>
       <c r="H11" t="n" s="522">
-        <v>0.9776598930804481</v>
+        <v>0.4573197554253268</v>
       </c>
       <c r="I11" t="n" s="523">
-        <v>0.9776598930804481</v>
+        <v>0.4573197554253268</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="511">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" t="n" s="516">
-        <v>0.9558188665380732</v>
+        <v>0.209141358702281</v>
       </c>
       <c r="C12" t="n" s="517">
-        <v>0.9776598930804481</v>
+        <v>0.4573197554253268</v>
       </c>
       <c r="D12" s="518"/>
       <c r="E12" s="519"/>
       <c r="F12" s="520"/>
       <c r="G12" s="521"/>
       <c r="H12" t="n" s="522">
-        <v>0.9558188665380732</v>
+        <v>0.209141358702281</v>
       </c>
       <c r="I12" t="n" s="523">
-        <v>0.9776598930804481</v>
+        <v>0.4573197554253268</v>
       </c>
     </row>
     <row r="13">
@@ -6748,54 +6748,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="537">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n" s="542">
         <v>37.0</v>
       </c>
       <c r="C17" t="n" s="543">
-        <v>0.9934112933115984</v>
+        <v>0.8922295270552707</v>
       </c>
       <c r="D17" t="n" s="544">
-        <v>0.9943992892898827</v>
+        <v>0.853615767024405</v>
       </c>
       <c r="E17" t="n" s="545">
-        <v>0.9832290576509934</v>
+        <v>0.5772612554674044</v>
       </c>
       <c r="F17" t="n" s="546">
-        <v>0.977659893080448</v>
+        <v>0.457319755425327</v>
       </c>
       <c r="G17" t="n" s="547">
-        <v>0.8648648648648649</v>
+        <v>1.4594594594594594</v>
       </c>
       <c r="H17" t="n" s="548">
-        <v>1.5663503610155212</v>
+        <v>1.5201351291285952</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="537">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n" s="542">
         <v>37.0</v>
       </c>
       <c r="C18" t="n" s="543">
-        <v>0.995307278933081</v>
+        <v>0.8096272814419156</v>
       </c>
       <c r="D18" t="n" s="544">
-        <v>0.9943992892898827</v>
+        <v>0.853615767024405</v>
       </c>
       <c r="E18" t="n" s="545">
-        <v>0.9832290576509934</v>
+        <v>0.5772612554674044</v>
       </c>
       <c r="F18" t="n" s="546">
-        <v>0.977659893080448</v>
+        <v>0.4573197554253268</v>
       </c>
       <c r="G18" t="n" s="547">
-        <v>1.054054054054054</v>
+        <v>2.5135135135135136</v>
       </c>
       <c r="H18" t="n" s="548">
-        <v>1.8551122449710264</v>
+        <v>1.1695588347184027</v>
       </c>
     </row>
     <row r="19">
@@ -6831,61 +6831,52 @@
         <v>41</v>
       </c>
       <c r="G22" t="s" s="566">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="566">
         <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="562">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="567">
-        <v>0.7297297297297297</v>
+        <v>0.43243243243243246</v>
       </c>
       <c r="C23" t="n" s="568">
-        <v>0.05405405405405406</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="D23" t="n" s="569">
-        <v>0.0</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="E23" t="n" s="570">
-        <v>0.05405405405405406</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="F23" t="n" s="571">
-        <v>0.16216216216216217</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="G23" t="n" s="572">
-        <v>0.0</v>
-      </c>
-      <c r="H23" t="n" s="573">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="562">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="567">
-        <v>0.7297297297297297</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="C24" t="n" s="568">
-        <v>0.0</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="D24" t="n" s="569">
-        <v>0.05405405405405406</v>
+        <v>0.21621621621621623</v>
       </c>
       <c r="E24" t="n" s="570">
-        <v>0.02702702702702703</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="F24" t="n" s="571">
-        <v>0.08108108108108109</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="G24" t="n" s="572">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="H24" t="n" s="573">
         <v>0.0</v>
       </c>
     </row>
@@ -6915,7 +6906,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="575">
+      <c r="A1" t="s" s="574">
         <v>48</v>
       </c>
     </row>
@@ -6930,66 +6921,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="589">
+      <c r="A4" t="s" s="588">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="603">
+      <c r="A5" t="s" s="602">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="603">
+      <c r="B5" t="s" s="602">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="603">
+      <c r="C5" t="s" s="602">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="603">
+      <c r="D5" t="s" s="602">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="603">
+      <c r="E5" t="s" s="602">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="603">
+      <c r="F5" t="s" s="602">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="603">
+      <c r="G5" t="s" s="602">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="603">
+      <c r="H5" t="s" s="602">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="603">
+      <c r="I5" t="s" s="602">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="604">
-        <v>0.6130767053495612</v>
-      </c>
-      <c r="B6" t="n" s="605">
-        <v>0.6276175886902122</v>
-      </c>
-      <c r="C6" t="n" s="606">
-        <v>0.457319755425327</v>
-      </c>
-      <c r="D6" t="n" s="607">
-        <v>0.45731975542532677</v>
-      </c>
-      <c r="E6" t="n" s="608">
-        <v>1.6854114738735406</v>
-      </c>
-      <c r="F6" t="n" s="609">
-        <v>0.1219146401117511</v>
-      </c>
-      <c r="G6" t="n" s="610">
-        <v>1.9864864864864864</v>
-      </c>
-      <c r="H6" t="n" s="611">
-        <v>1.1516080935809723</v>
-      </c>
-      <c r="I6" t="n" s="612">
-        <v>0.4573197554253268</v>
+      <c r="A6" t="n" s="603">
+        <v>0.8157715839564923</v>
+      </c>
+      <c r="B6" t="n" s="604">
+        <v>0.8166340874675824</v>
+      </c>
+      <c r="C6" t="n" s="605">
+        <v>0.6900943138711639</v>
+      </c>
+      <c r="D6" t="n" s="606">
+        <v>0.6900943138711639</v>
+      </c>
+      <c r="E6" t="n" s="607">
+        <v>4.453576328278619</v>
+      </c>
+      <c r="F6" t="n" s="608">
+        <v>0.06036814264198454</v>
+      </c>
+      <c r="G6" t="n" s="609">
+        <v>1.9189189189189189</v>
+      </c>
+      <c r="H6" t="n" s="610">
+        <v>1.0508826548927117</v>
+      </c>
+      <c r="I6" t="n" s="611">
+        <v>0.690094313871164</v>
       </c>
     </row>
     <row r="7">
@@ -7003,81 +6994,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="616">
+      <c r="A9" t="s" s="615">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="630">
+      <c r="B10" t="s" s="629">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="630">
+      <c r="C10" t="s" s="629">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="630">
+      <c r="D10" t="s" s="629">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="630">
+      <c r="E10" t="s" s="629">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="630">
+      <c r="F10" t="s" s="629">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="630">
+      <c r="G10" t="s" s="629">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="630">
+      <c r="H10" t="s" s="629">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="630">
+      <c r="I10" t="s" s="629">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="626">
-        <v>26</v>
-      </c>
-      <c r="B11" t="n" s="631">
-        <v>0.4573197554253268</v>
-      </c>
-      <c r="C11" t="n" s="632">
-        <v>0.4573197554253268</v>
-      </c>
-      <c r="D11" t="n" s="633">
-        <v>0.209141358702281</v>
-      </c>
-      <c r="E11" t="n" s="634">
-        <v>0.4573197554253268</v>
-      </c>
-      <c r="F11" s="635"/>
-      <c r="G11" s="636"/>
-      <c r="H11" t="n" s="637">
-        <v>0.4573197554253268</v>
-      </c>
-      <c r="I11" t="n" s="638">
-        <v>0.4573197554253268</v>
+      <c r="A11" t="s" s="625">
+        <v>28</v>
+      </c>
+      <c r="B11" t="n" s="630">
+        <v>0.690094313871164</v>
+      </c>
+      <c r="C11" t="n" s="631">
+        <v>0.690094313871164</v>
+      </c>
+      <c r="D11" t="n" s="632">
+        <v>0.4762301620373125</v>
+      </c>
+      <c r="E11" t="n" s="633">
+        <v>0.690094313871164</v>
+      </c>
+      <c r="F11" s="634"/>
+      <c r="G11" s="635"/>
+      <c r="H11" t="n" s="636">
+        <v>0.690094313871164</v>
+      </c>
+      <c r="I11" t="n" s="637">
+        <v>0.690094313871164</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="626">
-        <v>27</v>
-      </c>
-      <c r="B12" t="n" s="631">
-        <v>0.209141358702281</v>
-      </c>
-      <c r="C12" t="n" s="632">
-        <v>0.4573197554253268</v>
-      </c>
-      <c r="D12" s="633"/>
-      <c r="E12" s="634"/>
-      <c r="F12" s="635"/>
-      <c r="G12" s="636"/>
-      <c r="H12" t="n" s="637">
-        <v>0.209141358702281</v>
-      </c>
-      <c r="I12" t="n" s="638">
-        <v>0.4573197554253268</v>
+      <c r="A12" t="s" s="625">
+        <v>29</v>
+      </c>
+      <c r="B12" t="n" s="630">
+        <v>0.4762301620373125</v>
+      </c>
+      <c r="C12" t="n" s="631">
+        <v>0.690094313871164</v>
+      </c>
+      <c r="D12" s="632"/>
+      <c r="E12" s="633"/>
+      <c r="F12" s="634"/>
+      <c r="G12" s="635"/>
+      <c r="H12" t="n" s="636">
+        <v>0.4762301620373125</v>
+      </c>
+      <c r="I12" t="n" s="637">
+        <v>0.690094313871164</v>
       </c>
     </row>
     <row r="13">
@@ -7091,84 +7082,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="642">
+      <c r="A15" t="s" s="641">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="656">
+      <c r="B16" t="s" s="655">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="656">
+      <c r="C16" t="s" s="655">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="656">
+      <c r="D16" t="s" s="655">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="656">
+      <c r="E16" t="s" s="655">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="656">
+      <c r="F16" t="s" s="655">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="656">
+      <c r="G16" t="s" s="655">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="656">
+      <c r="H16" t="s" s="655">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="652">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n" s="657">
+      <c r="A17" t="s" s="651">
+        <v>28</v>
+      </c>
+      <c r="B17" t="n" s="656">
         <v>37.0</v>
       </c>
-      <c r="C17" t="n" s="658">
-        <v>0.8922295270552707</v>
-      </c>
-      <c r="D17" t="n" s="659">
-        <v>0.853615767024405</v>
-      </c>
-      <c r="E17" t="n" s="660">
-        <v>0.5772612554674044</v>
-      </c>
-      <c r="F17" t="n" s="661">
-        <v>0.457319755425327</v>
-      </c>
-      <c r="G17" t="n" s="662">
-        <v>1.4594594594594594</v>
-      </c>
-      <c r="H17" t="n" s="663">
-        <v>1.5201351291285952</v>
+      <c r="C17" t="n" s="657">
+        <v>0.9242250143743651</v>
+      </c>
+      <c r="D17" t="n" s="658">
+        <v>0.919264465176144</v>
+      </c>
+      <c r="E17" t="n" s="659">
+        <v>0.763650599393622</v>
+      </c>
+      <c r="F17" t="n" s="660">
+        <v>0.690094313871164</v>
+      </c>
+      <c r="G17" t="n" s="661">
+        <v>2.054054054054054</v>
+      </c>
+      <c r="H17" t="n" s="662">
+        <v>1.177236546275168</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="652">
-        <v>27</v>
-      </c>
-      <c r="B18" t="n" s="657">
+      <c r="A18" t="s" s="651">
+        <v>29</v>
+      </c>
+      <c r="B18" t="n" s="656">
         <v>37.0</v>
       </c>
-      <c r="C18" t="n" s="658">
-        <v>0.8096272814419156</v>
-      </c>
-      <c r="D18" t="n" s="659">
-        <v>0.853615767024405</v>
-      </c>
-      <c r="E18" t="n" s="660">
-        <v>0.5772612554674044</v>
-      </c>
-      <c r="F18" t="n" s="661">
-        <v>0.4573197554253268</v>
-      </c>
-      <c r="G18" t="n" s="662">
-        <v>2.5135135135135136</v>
-      </c>
-      <c r="H18" t="n" s="663">
-        <v>1.1695588347184027</v>
+      <c r="C18" t="n" s="657">
+        <v>0.9141534663357929</v>
+      </c>
+      <c r="D18" t="n" s="658">
+        <v>0.919264465176144</v>
+      </c>
+      <c r="E18" t="n" s="659">
+        <v>0.763650599393622</v>
+      </c>
+      <c r="F18" t="n" s="660">
+        <v>0.6900943138711642</v>
+      </c>
+      <c r="G18" t="n" s="661">
+        <v>1.7837837837837838</v>
+      </c>
+      <c r="H18" t="n" s="662">
+        <v>1.1089317966988457</v>
       </c>
     </row>
     <row r="19">
@@ -7182,74 +7173,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="667">
+      <c r="A21" t="s" s="666">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="681">
+      <c r="B22" t="s" s="680">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="681">
+      <c r="C22" t="s" s="680">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="681">
+      <c r="D22" t="s" s="680">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="681">
+      <c r="E22" t="s" s="680">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="681">
+      <c r="F22" t="s" s="680">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="681">
+      <c r="G22" t="s" s="680">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="677">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n" s="682">
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="C23" t="n" s="683">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="D23" t="n" s="684">
+      <c r="A23" t="s" s="676">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n" s="681">
         <v>0.16216216216216217</v>
       </c>
-      <c r="E23" t="n" s="685">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="F23" t="n" s="686">
+      <c r="C23" t="n" s="682">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="D23" t="n" s="683">
+        <v>0.5405405405405406</v>
+      </c>
+      <c r="E23" t="n" s="684">
         <v>0.13513513513513514</v>
       </c>
-      <c r="G23" t="n" s="687">
+      <c r="F23" t="n" s="685">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="G23" t="n" s="686">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="677">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n" s="682">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="C24" t="n" s="683">
+      <c r="A24" t="s" s="676">
+        <v>29</v>
+      </c>
+      <c r="B24" t="n" s="681">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="C24" t="n" s="682">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="D24" t="n" s="683">
+        <v>0.5675675675675675</v>
+      </c>
+      <c r="E24" t="n" s="684">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="F24" t="n" s="685">
         <v>0.05405405405405406</v>
       </c>
-      <c r="D24" t="n" s="684">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="E24" t="n" s="685">
-        <v>0.4594594594594595</v>
-      </c>
-      <c r="F24" t="n" s="686">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="G24" t="n" s="687">
+      <c r="G24" t="n" s="686">
         <v>0.0</v>
       </c>
     </row>
@@ -7279,7 +7270,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="689">
+      <c r="A1" t="s" s="688">
         <v>49</v>
       </c>
     </row>
@@ -7294,66 +7285,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="703">
+      <c r="A4" t="s" s="702">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="717">
+      <c r="A5" t="s" s="716">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="717">
+      <c r="B5" t="s" s="716">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="717">
+      <c r="C5" t="s" s="716">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="717">
+      <c r="D5" t="s" s="716">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="717">
+      <c r="E5" t="s" s="716">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="717">
+      <c r="F5" t="s" s="716">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="717">
+      <c r="G5" t="s" s="716">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="717">
+      <c r="H5" t="s" s="716">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="717">
+      <c r="I5" t="s" s="716">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="718">
-        <v>0.5184676509540393</v>
-      </c>
-      <c r="B6" t="n" s="719">
-        <v>0.5210650956847042</v>
-      </c>
-      <c r="C6" t="n" s="720">
-        <v>0.8381172410101445</v>
-      </c>
-      <c r="D6" t="n" s="721">
-        <v>0.0981213671969385</v>
-      </c>
-      <c r="E6" t="n" s="722">
-        <v>1.087966425060707</v>
-      </c>
-      <c r="F6" t="n" s="723">
-        <v>0.12097326383727566</v>
-      </c>
-      <c r="G6" t="n" s="724">
-        <v>2.5</v>
-      </c>
-      <c r="H6" t="n" s="725">
-        <v>0.5532730890899278</v>
-      </c>
-      <c r="I6" t="n" s="726">
-        <v>0.06267149137383445</v>
+      <c r="A6" t="n" s="717">
+        <v>0.5318514857242542</v>
+      </c>
+      <c r="B6" t="n" s="718">
+        <v>0.5646368273150777</v>
+      </c>
+      <c r="C6" t="n" s="719">
+        <v>0.8044674004359049</v>
+      </c>
+      <c r="D6" t="n" s="720">
+        <v>0.12595332251441482</v>
+      </c>
+      <c r="E6" t="n" s="721">
+        <v>1.2969329119707436</v>
+      </c>
+      <c r="F6" t="n" s="722">
+        <v>0.11847092922449531</v>
+      </c>
+      <c r="G6" t="n" s="723">
+        <v>1.987987987987988</v>
+      </c>
+      <c r="H6" t="n" s="724">
+        <v>0.5646076024175292</v>
+      </c>
+      <c r="I6" t="n" s="725">
+        <v>0.04804562860321799</v>
       </c>
     </row>
     <row r="7">
@@ -7367,325 +7358,301 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="730">
+      <c r="A9" t="s" s="729">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="744">
+      <c r="B10" t="s" s="743">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="744">
+      <c r="C10" t="s" s="743">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="744">
+      <c r="D10" t="s" s="743">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="744">
+      <c r="E10" t="s" s="743">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="744">
+      <c r="F10" t="s" s="743">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="744">
+      <c r="G10" t="s" s="743">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="744">
+      <c r="H10" t="s" s="743">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="744">
+      <c r="I10" t="s" s="743">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="740">
+      <c r="A11" t="s" s="739">
+        <v>20</v>
+      </c>
+      <c r="B11" t="n" s="744">
+        <v>0.4770166888750152</v>
+      </c>
+      <c r="C11" t="n" s="745">
+        <v>0.487327088705488</v>
+      </c>
+      <c r="D11" t="n" s="746">
+        <v>0.7326574480420751</v>
+      </c>
+      <c r="E11" t="n" s="747">
+        <v>0.10620131767940191</v>
+      </c>
+      <c r="F11" t="n" s="748">
+        <v>0.9505614163911545</v>
+      </c>
+      <c r="G11" t="n" s="749">
+        <v>0.13526356159837816</v>
+      </c>
+      <c r="H11" t="n" s="750">
+        <v>0.0843315500214157</v>
+      </c>
+      <c r="I11" t="n" s="751">
+        <v>0.056207722757221565</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="739">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n" s="744">
+        <v>0.45024751033719657</v>
+      </c>
+      <c r="C12" t="n" s="745">
+        <v>0.5100787808551159</v>
+      </c>
+      <c r="D12" t="n" s="746">
+        <v>0.7475205975538746</v>
+      </c>
+      <c r="E12" t="n" s="747">
+        <v>0.11515627214949418</v>
+      </c>
+      <c r="F12" t="n" s="748">
+        <v>1.0411444961404512</v>
+      </c>
+      <c r="G12" t="n" s="749">
+        <v>0.13869444719556698</v>
+      </c>
+      <c r="H12" t="n" s="750">
+        <v>0.07773080725468463</v>
+      </c>
+      <c r="I12" t="n" s="751">
+        <v>0.06375848412712962</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="739">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n" s="744">
+        <v>0.47960057759612323</v>
+      </c>
+      <c r="C13" t="n" s="745">
+        <v>0.5050460752740794</v>
+      </c>
+      <c r="D13" t="n" s="746">
+        <v>0.724673969246376</v>
+      </c>
+      <c r="E13" t="n" s="747">
+        <v>0.11312039409769621</v>
+      </c>
+      <c r="F13" t="n" s="748">
+        <v>1.0203900808620667</v>
+      </c>
+      <c r="G13" t="n" s="749">
+        <v>0.12793058417463107</v>
+      </c>
+      <c r="H13" t="n" s="750">
+        <v>0.07595689990445495</v>
+      </c>
+      <c r="I13" t="n" s="751">
+        <v>0.056207722757221565</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="739">
         <v>18</v>
       </c>
-      <c r="B11" t="n" s="745">
-        <v>0.5314942874323512</v>
-      </c>
-      <c r="C11" t="n" s="746">
-        <v>0.5338942071042878</v>
-      </c>
-      <c r="D11" t="n" s="747">
-        <v>0.8151933241776929</v>
-      </c>
-      <c r="E11" t="n" s="748">
-        <v>0.11290157648617437</v>
-      </c>
-      <c r="F11" t="n" s="749">
-        <v>1.1454356827179424</v>
-      </c>
-      <c r="G11" t="n" s="750">
-        <v>0.11924628601436885</v>
-      </c>
-      <c r="H11" t="n" s="751">
-        <v>0.07176258811851509</v>
-      </c>
-      <c r="I11" t="n" s="752">
-        <v>0.07192057828113319</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="740">
+      <c r="B14" t="n" s="744">
+        <v>0.5542516303751761</v>
+      </c>
+      <c r="C14" t="n" s="745">
+        <v>0.6038645908936157</v>
+      </c>
+      <c r="D14" t="n" s="746">
+        <v>0.8243677142430642</v>
+      </c>
+      <c r="E14" t="n" s="747">
+        <v>0.16005113579657948</v>
+      </c>
+      <c r="F14" t="n" s="748">
+        <v>1.5243893300420532</v>
+      </c>
+      <c r="G14" t="n" s="749">
+        <v>0.11484657698695164</v>
+      </c>
+      <c r="H14" t="n" s="750">
+        <v>0.12153805490111727</v>
+      </c>
+      <c r="I14" t="n" s="751">
+        <v>0.056207722757221565</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="739">
         <v>19</v>
       </c>
-      <c r="B12" t="n" s="745">
-        <v>0.49678696002146505</v>
-      </c>
-      <c r="C12" t="n" s="746">
-        <v>0.48804640714841574</v>
-      </c>
-      <c r="D12" t="n" s="747">
-        <v>0.7815633538119109</v>
-      </c>
-      <c r="E12" t="n" s="748">
-        <v>0.09577746570269656</v>
-      </c>
-      <c r="F12" t="n" s="749">
-        <v>0.9533020452693661</v>
-      </c>
-      <c r="G12" t="n" s="750">
-        <v>0.12767634659650082</v>
-      </c>
-      <c r="H12" t="n" s="751">
-        <v>0.08004466339151338</v>
-      </c>
-      <c r="I12" t="n" s="752">
-        <v>0.05450939721983086</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="740">
-        <v>20</v>
-      </c>
-      <c r="B13" t="n" s="745">
-        <v>0.47183853809196974</v>
-      </c>
-      <c r="C13" t="n" s="746">
-        <v>0.47513004204461934</v>
-      </c>
-      <c r="D13" t="n" s="747">
-        <v>0.7118928195102203</v>
-      </c>
-      <c r="E13" t="n" s="748">
-        <v>0.09138944573224163</v>
-      </c>
-      <c r="F13" t="n" s="749">
-        <v>0.9052338295288949</v>
-      </c>
-      <c r="G13" t="n" s="750">
-        <v>0.13325167281772185</v>
-      </c>
-      <c r="H13" t="n" s="751">
-        <v>0.06921638150283003</v>
-      </c>
-      <c r="I13" t="n" s="752">
+      <c r="B15" t="n" s="744">
+        <v>0.5169461453774554</v>
+      </c>
+      <c r="C15" t="n" s="745">
+        <v>0.5506528128252802</v>
+      </c>
+      <c r="D15" t="n" s="746">
+        <v>0.7944280027936903</v>
+      </c>
+      <c r="E15" t="n" s="747">
+        <v>0.13283369194925707</v>
+      </c>
+      <c r="F15" t="n" s="748">
+        <v>1.2254506727582335</v>
+      </c>
+      <c r="G15" t="n" s="749">
+        <v>0.123916629886091</v>
+      </c>
+      <c r="H15" t="n" s="750">
+        <v>0.13683605714270722</v>
+      </c>
+      <c r="I15" t="n" s="751">
+        <v>0.035560451951276835</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="739">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n" s="744">
+        <v>0.5236827224592606</v>
+      </c>
+      <c r="C16" t="n" s="745">
+        <v>0.5372238567717047</v>
+      </c>
+      <c r="D16" t="n" s="746">
+        <v>0.8070221330170465</v>
+      </c>
+      <c r="E16" t="n" s="747">
+        <v>0.12672068563000666</v>
+      </c>
+      <c r="F16" t="n" s="748">
+        <v>1.1608719780239045</v>
+      </c>
+      <c r="G16" t="n" s="749">
+        <v>0.11541569307339171</v>
+      </c>
+      <c r="H16" t="n" s="750">
+        <v>0.12953492340342995</v>
+      </c>
+      <c r="I16" t="n" s="751">
+        <v>0.035560451951276835</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="739">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="744">
+        <v>0.5182831106176053</v>
+      </c>
+      <c r="C17" t="n" s="745">
+        <v>0.5503548590071132</v>
+      </c>
+      <c r="D17" t="n" s="746">
+        <v>0.7984539135878845</v>
+      </c>
+      <c r="E17" t="n" s="747">
+        <v>0.13269505427797174</v>
+      </c>
+      <c r="F17" t="n" s="748">
+        <v>1.223975995363463</v>
+      </c>
+      <c r="G17" t="n" s="749">
+        <v>0.1185275388367366</v>
+      </c>
+      <c r="H17" t="n" s="750">
+        <v>0.12380296295702561</v>
+      </c>
+      <c r="I17" t="n" s="751">
+        <v>0.035560451951276835</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="739">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="744">
+        <v>0.49203352412918183</v>
+      </c>
+      <c r="C18" t="n" s="745">
+        <v>0.5272377503676563</v>
+      </c>
+      <c r="D18" t="n" s="746">
+        <v>0.7472216586162657</v>
+      </c>
+      <c r="E18" t="n" s="747">
+        <v>0.1223478005125337</v>
+      </c>
+      <c r="F18" t="n" s="748">
+        <v>1.1152281104882567</v>
+      </c>
+      <c r="G18" t="n" s="749">
+        <v>0.12438491951146613</v>
+      </c>
+      <c r="H18" t="n" s="750">
+        <v>0.11678814213122055</v>
+      </c>
+      <c r="I18" t="n" s="751">
         <v>0.056207722757221565</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="740">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="745">
-        <v>0.48114256075874323</v>
-      </c>
-      <c r="C14" t="n" s="746">
-        <v>0.48194815201462565</v>
-      </c>
-      <c r="D14" t="n" s="747">
-        <v>0.7192745142295861</v>
-      </c>
-      <c r="E14" t="n" s="748">
-        <v>0.09368376623217228</v>
-      </c>
-      <c r="F14" t="n" s="749">
-        <v>0.9303087208140448</v>
-      </c>
-      <c r="G14" t="n" s="750">
-        <v>0.13133342141133061</v>
-      </c>
-      <c r="H14" t="n" s="751">
-        <v>0.06890579525972834</v>
-      </c>
-      <c r="I14" t="n" s="752">
-        <v>0.056207722757221565</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="740">
-        <v>28</v>
-      </c>
-      <c r="B15" t="n" s="745">
-        <v>0.4906216354054513</v>
-      </c>
-      <c r="C15" t="n" s="746">
-        <v>0.47939310119928596</v>
-      </c>
-      <c r="D15" t="n" s="747">
-        <v>0.79563626681947</v>
-      </c>
-      <c r="E15" t="n" s="748">
-        <v>0.09281830439114952</v>
-      </c>
-      <c r="F15" t="n" s="749">
-        <v>0.9208350913205923</v>
-      </c>
-      <c r="G15" t="n" s="750">
-        <v>0.1255104924864974</v>
-      </c>
-      <c r="H15" t="n" s="751">
-        <v>0.06396978143753002</v>
-      </c>
-      <c r="I15" t="n" s="752">
-        <v>0.08451655200992533</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="740">
+    <row r="19">
+      <c r="A19" t="s" s="739">
         <v>29</v>
       </c>
-      <c r="B16" t="n" s="745">
-        <v>0.5037756054698226</v>
-      </c>
-      <c r="C16" t="n" s="746">
-        <v>0.5136603621604218</v>
-      </c>
-      <c r="D16" t="n" s="747">
-        <v>0.8182441636148144</v>
-      </c>
-      <c r="E16" t="n" s="748">
-        <v>0.10502761688569168</v>
-      </c>
-      <c r="F16" t="n" s="749">
-        <v>1.056176223764544</v>
-      </c>
-      <c r="G16" t="n" s="750">
-        <v>0.12532199683928819</v>
-      </c>
-      <c r="H16" t="n" s="751">
-        <v>0.06854273936354756</v>
-      </c>
-      <c r="I16" t="n" s="752">
-        <v>0.08451655200992533</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="740">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="745">
-        <v>0.46107970875646676</v>
-      </c>
-      <c r="C17" t="n" s="746">
-        <v>0.5128909047464751</v>
-      </c>
-      <c r="D17" t="n" s="747">
-        <v>0.7547023944955551</v>
-      </c>
-      <c r="E17" t="n" s="748">
-        <v>0.10473845853696323</v>
-      </c>
-      <c r="F17" t="n" s="749">
-        <v>1.052928203854481</v>
-      </c>
-      <c r="G17" t="n" s="750">
-        <v>0.13536564767616008</v>
-      </c>
-      <c r="H17" t="n" s="751">
-        <v>0.053213891618777716</v>
-      </c>
-      <c r="I17" t="n" s="752">
-        <v>0.09348826258733872</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="740">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="745">
-        <v>0.48378661087866115</v>
-      </c>
-      <c r="C18" t="n" s="746">
-        <v>0.508441106635009</v>
-      </c>
-      <c r="D18" t="n" s="747">
-        <v>0.7476384825655451</v>
-      </c>
-      <c r="E18" t="n" s="748">
-        <v>0.1030804015858266</v>
-      </c>
-      <c r="F18" t="n" s="749">
-        <v>1.0343442332096768</v>
-      </c>
-      <c r="G18" t="n" s="750">
-        <v>0.1278784882869479</v>
-      </c>
-      <c r="H18" t="n" s="751">
-        <v>0.05307920482358199</v>
-      </c>
-      <c r="I18" t="n" s="752">
-        <v>0.07192057828113319</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="740">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n" s="745">
-        <v>0.49508907149712095</v>
-      </c>
-      <c r="C19" t="n" s="746">
-        <v>0.46619631426457</v>
-      </c>
-      <c r="D19" t="n" s="747">
-        <v>0.7953582135154028</v>
-      </c>
-      <c r="E19" t="n" s="748">
-        <v>0.08845508995296332</v>
-      </c>
-      <c r="F19" t="n" s="749">
-        <v>0.8733478743637443</v>
-      </c>
-      <c r="G19" t="n" s="750">
-        <v>0.12357444433532834</v>
-      </c>
-      <c r="H19" t="n" s="751">
-        <v>0.07415875690134606</v>
-      </c>
-      <c r="I19" t="n" s="752">
-        <v>0.04804562860321798</v>
+      <c r="B19" t="n" s="744">
+        <v>0.48925253085563725</v>
+      </c>
+      <c r="C19" t="n" s="745">
+        <v>0.5320873152474209</v>
+      </c>
+      <c r="D19" t="n" s="746">
+        <v>0.7616750538243452</v>
+      </c>
+      <c r="E19" t="n" s="747">
+        <v>0.12445355053679223</v>
+      </c>
+      <c r="F19" t="n" s="748">
+        <v>1.1371508672152706</v>
+      </c>
+      <c r="G19" t="n" s="749">
+        <v>0.12952707796967922</v>
+      </c>
+      <c r="H19" t="n" s="750">
+        <v>0.126470340541301</v>
+      </c>
+      <c r="I19" t="n" s="751">
+        <v>0.02332744432729897</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="740">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="745">
-        <v>0.49471405274700553</v>
-      </c>
-      <c r="C20" t="n" s="746">
-        <v>0.48094025838090104</v>
-      </c>
-      <c r="D20" t="n" s="747">
-        <v>0.8164183171338183</v>
-      </c>
-      <c r="E20" t="n" s="748">
-        <v>0.09334154646350575</v>
-      </c>
-      <c r="F20" t="n" s="749">
-        <v>0.9265605089709095</v>
-      </c>
-      <c r="G20" t="n" s="750">
-        <v>0.12488947438058878</v>
-      </c>
-      <c r="H20" t="n" s="751">
-        <v>0.07143241471466195</v>
-      </c>
-      <c r="I20" t="n" s="752">
-        <v>0.04804562860321798</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7694,595 +7661,538 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="755">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="769">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="769">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="769">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="769">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s" s="769">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="769">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s" s="769">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="765">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n" s="770">
+        <v>37.0</v>
+      </c>
+      <c r="C24" t="n" s="771">
+        <v>0.6566347509671018</v>
+      </c>
+      <c r="D24" t="n" s="772">
+        <v>0.6024112127425282</v>
+      </c>
+      <c r="E24" t="n" s="773">
+        <v>0.6525170459464901</v>
+      </c>
+      <c r="F24" t="n" s="774">
+        <v>0.6016098609595546</v>
+      </c>
+      <c r="G24" t="n" s="775">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="H24" t="n" s="776">
+        <v>0.45022516889074815</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="765">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n" s="770">
+        <v>37.0</v>
+      </c>
+      <c r="C25" t="n" s="771">
+        <v>0.6193248569327306</v>
+      </c>
+      <c r="D25" t="n" s="772">
+        <v>0.543423889325746</v>
+      </c>
+      <c r="E25" t="n" s="773">
+        <v>0.5961925339059188</v>
+      </c>
+      <c r="F25" t="n" s="774">
+        <v>0.3683501518916013</v>
+      </c>
+      <c r="G25" t="n" s="775">
+        <v>0.8648648648648649</v>
+      </c>
+      <c r="H25" t="n" s="776">
+        <v>1.5663503610155212</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="765">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="770">
+        <v>37.0</v>
+      </c>
+      <c r="C26" t="n" s="771">
+        <v>0.6223939098483927</v>
+      </c>
+      <c r="D26" t="n" s="772">
+        <v>0.556834454111934</v>
+      </c>
+      <c r="E26" t="n" s="773">
+        <v>0.6156039815649442</v>
+      </c>
+      <c r="F26" t="n" s="774">
+        <v>0.31231281960300017</v>
+      </c>
+      <c r="G26" t="n" s="775">
+        <v>1.054054054054054</v>
+      </c>
+      <c r="H26" t="n" s="776">
+        <v>1.8551122449710264</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="765">
+        <v>18</v>
+      </c>
+      <c r="B27" t="n" s="770">
+        <v>37.0</v>
+      </c>
+      <c r="C27" t="n" s="771">
+        <v>0.1250361072472149</v>
+      </c>
+      <c r="D27" t="n" s="772">
+        <v>0.24769621694645064</v>
+      </c>
+      <c r="E27" t="n" s="773">
+        <v>0.09159558172717909</v>
+      </c>
+      <c r="F27" t="n" s="774">
+        <v>-0.01693865229198415</v>
+      </c>
+      <c r="G27" t="n" s="775">
+        <v>3.6216216216216215</v>
+      </c>
+      <c r="H27" t="n" s="776">
+        <v>0.7207770248277338</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="765">
+        <v>19</v>
+      </c>
+      <c r="B28" t="n" s="770">
+        <v>37.0</v>
+      </c>
+      <c r="C28" t="n" s="771">
+        <v>0.346148310017319</v>
+      </c>
+      <c r="D28" t="n" s="772">
+        <v>0.42698067541713347</v>
+      </c>
+      <c r="E28" t="n" s="773">
+        <v>0.32217589193387375</v>
+      </c>
+      <c r="F28" t="n" s="774">
+        <v>0.18961667887288006</v>
+      </c>
+      <c r="G28" t="n" s="775">
+        <v>4.27027027027027</v>
+      </c>
+      <c r="H28" t="n" s="776">
+        <v>0.8382736442849094</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="765">
+        <v>26</v>
+      </c>
+      <c r="B29" t="n" s="770">
+        <v>37.0</v>
+      </c>
+      <c r="C29" t="n" s="771">
+        <v>0.47049978729871944</v>
+      </c>
+      <c r="D29" t="n" s="772">
+        <v>0.4672477568419195</v>
+      </c>
+      <c r="E29" t="n" s="773">
+        <v>0.3358176719554902</v>
+      </c>
+      <c r="F29" t="n" s="774">
+        <v>0.1906223113392403</v>
+      </c>
+      <c r="G29" t="n" s="775">
+        <v>1.4594594594594594</v>
+      </c>
+      <c r="H29" t="n" s="776">
+        <v>1.5201351291285952</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="765">
+        <v>27</v>
+      </c>
+      <c r="B30" t="n" s="770">
+        <v>37.0</v>
+      </c>
+      <c r="C30" t="n" s="771">
+        <v>0.40221432055611045</v>
+      </c>
+      <c r="D30" t="n" s="772">
+        <v>0.4278938978328554</v>
+      </c>
+      <c r="E30" t="n" s="773">
+        <v>0.319224470406576</v>
+      </c>
+      <c r="F30" t="n" s="774">
+        <v>0.18469081733693646</v>
+      </c>
+      <c r="G30" t="n" s="775">
+        <v>2.5135135135135136</v>
+      </c>
+      <c r="H30" t="n" s="776">
+        <v>1.1695588347184027</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="765">
+        <v>28</v>
+      </c>
+      <c r="B31" t="n" s="770">
+        <v>37.0</v>
+      </c>
+      <c r="C31" t="n" s="771">
+        <v>0.47928348731556064</v>
+      </c>
+      <c r="D31" t="n" s="772">
+        <v>0.49605245814445453</v>
+      </c>
+      <c r="E31" t="n" s="773">
+        <v>0.45575733694122955</v>
+      </c>
+      <c r="F31" t="n" s="774">
+        <v>0.27152700904556565</v>
+      </c>
+      <c r="G31" t="n" s="775">
+        <v>2.054054054054054</v>
+      </c>
+      <c r="H31" t="n" s="776">
+        <v>1.177236546275168</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="765">
+        <v>29</v>
+      </c>
+      <c r="B32" t="n" s="770">
+        <v>37.0</v>
+      </c>
+      <c r="C32" t="n" s="771">
+        <v>0.4788282671099366</v>
+      </c>
+      <c r="D32" t="n" s="772">
+        <v>0.48218163857405033</v>
+      </c>
+      <c r="E32" t="n" s="773">
+        <v>0.4236777767241846</v>
+      </c>
+      <c r="F32" t="n" s="774">
+        <v>0.28456675289149413</v>
+      </c>
+      <c r="G32" t="n" s="775">
+        <v>1.7837837837837838</v>
+      </c>
+      <c r="H32" t="n" s="776">
+        <v>1.1089317966988457</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="756">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s" s="770">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="770">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s" s="770">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="770">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s" s="770">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s" s="770">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s" s="770">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="766">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="780">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36" t="s" s="794">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s" s="794">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s" s="794">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s" s="794">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s" s="794">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="794">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="794">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="790">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n" s="795">
+        <v>0.7297297297297297</v>
+      </c>
+      <c r="C37" t="n" s="796">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="D37" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="790">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n" s="795">
+        <v>0.7297297297297297</v>
+      </c>
+      <c r="C38" t="n" s="796">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="D38" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="798">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="F38" t="n" s="799">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="G38" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H38" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="790">
+        <v>22</v>
+      </c>
+      <c r="B39" t="n" s="795">
+        <v>0.7297297297297297</v>
+      </c>
+      <c r="C39" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D39" t="n" s="797">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="E39" t="n" s="798">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="F39" t="n" s="799">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="G39" t="n" s="800">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="H39" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="790">
         <v>18</v>
       </c>
-      <c r="B25" t="n" s="771">
-        <v>37.0</v>
-      </c>
-      <c r="C25" t="n" s="772">
-        <v>0.14627709009278525</v>
-      </c>
-      <c r="D25" t="n" s="773">
-        <v>0.3113300763721911</v>
-      </c>
-      <c r="E25" t="n" s="774">
-        <v>0.22589936648889436</v>
-      </c>
-      <c r="F25" t="n" s="775">
-        <v>0.016173876887531576</v>
-      </c>
-      <c r="G25" t="n" s="776">
-        <v>3.6216216216216215</v>
-      </c>
-      <c r="H25" t="n" s="777">
-        <v>0.7207770248277338</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="766">
+      <c r="B40" t="n" s="795">
+        <v>0.0</v>
+      </c>
+      <c r="C40" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n" s="797">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="E40" t="n" s="798">
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="F40" t="n" s="799">
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="G40" t="n" s="800">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="H40" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="790">
         <v>19</v>
       </c>
-      <c r="B26" t="n" s="771">
-        <v>37.0</v>
-      </c>
-      <c r="C26" t="n" s="772">
-        <v>0.35935475082407037</v>
-      </c>
-      <c r="D26" t="n" s="773">
-        <v>0.45339102986371776</v>
-      </c>
-      <c r="E26" t="n" s="774">
-        <v>0.39834426674128787</v>
-      </c>
-      <c r="F26" t="n" s="775">
-        <v>0.21739392463959756</v>
-      </c>
-      <c r="G26" t="n" s="776">
-        <v>4.27027027027027</v>
-      </c>
-      <c r="H26" t="n" s="777">
-        <v>0.8382736442849094</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="766">
-        <v>20</v>
-      </c>
-      <c r="B27" t="n" s="771">
-        <v>37.0</v>
-      </c>
-      <c r="C27" t="n" s="772">
-        <v>0.4722282823723711</v>
-      </c>
-      <c r="D27" t="n" s="773">
-        <v>0.48979387196306595</v>
-      </c>
-      <c r="E27" t="n" s="774">
-        <v>0.4905145658747419</v>
-      </c>
-      <c r="F27" t="n" s="775">
-        <v>0.3065751506774347</v>
-      </c>
-      <c r="G27" t="n" s="776">
-        <v>3.4324324324324325</v>
-      </c>
-      <c r="H27" t="n" s="777">
-        <v>1.0419143849595252</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="766">
-        <v>21</v>
-      </c>
-      <c r="B28" t="n" s="771">
-        <v>37.0</v>
-      </c>
-      <c r="C28" t="n" s="772">
-        <v>0.4750104716387136</v>
-      </c>
-      <c r="D28" t="n" s="773">
-        <v>0.4707602788056459</v>
-      </c>
-      <c r="E28" t="n" s="774">
-        <v>0.4675919666945166</v>
-      </c>
-      <c r="F28" t="n" s="775">
-        <v>0.2533731755920645</v>
-      </c>
-      <c r="G28" t="n" s="776">
-        <v>3.945945945945946</v>
-      </c>
-      <c r="H28" t="n" s="777">
-        <v>1.3528970139409469</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="766">
+      <c r="B41" t="n" s="795">
+        <v>0.0</v>
+      </c>
+      <c r="C41" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n" s="798">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="F41" t="n" s="799">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="G41" t="n" s="800">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="H41" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="790">
+        <v>26</v>
+      </c>
+      <c r="B42" t="n" s="795">
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="C42" t="n" s="796">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="D42" t="n" s="797">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="E42" t="n" s="798">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="F42" t="n" s="799">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="G42" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="790">
+        <v>27</v>
+      </c>
+      <c r="B43" t="n" s="795">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="C43" t="n" s="796">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="D43" t="n" s="797">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="E43" t="n" s="798">
+        <v>0.4594594594594595</v>
+      </c>
+      <c r="F43" t="n" s="799">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="G43" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H43" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="790">
         <v>28</v>
       </c>
-      <c r="B29" t="n" s="771">
-        <v>37.0</v>
-      </c>
-      <c r="C29" t="n" s="772">
-        <v>0.42221087079220093</v>
-      </c>
-      <c r="D29" t="n" s="773">
-        <v>0.4779401163984309</v>
-      </c>
-      <c r="E29" t="n" s="774">
-        <v>0.42803804471113593</v>
-      </c>
-      <c r="F29" t="n" s="775">
-        <v>0.22510681242427935</v>
-      </c>
-      <c r="G29" t="n" s="776">
-        <v>2.054054054054054</v>
-      </c>
-      <c r="H29" t="n" s="777">
-        <v>1.177236546275168</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="766">
+      <c r="B44" t="n" s="795">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="C44" t="n" s="796">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="D44" t="n" s="797">
+        <v>0.5405405405405406</v>
+      </c>
+      <c r="E44" t="n" s="798">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="F44" t="n" s="799">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="G44" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H44" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="790">
         <v>29</v>
       </c>
-      <c r="B30" t="n" s="771">
-        <v>37.0</v>
-      </c>
-      <c r="C30" t="n" s="772">
-        <v>0.36672298835017114</v>
-      </c>
-      <c r="D30" t="n" s="773">
-        <v>0.37665213733886</v>
-      </c>
-      <c r="E30" t="n" s="774">
-        <v>0.2993398771722381</v>
-      </c>
-      <c r="F30" t="n" s="775">
-        <v>0.17595615461224204</v>
-      </c>
-      <c r="G30" t="n" s="776">
-        <v>1.7837837837837838</v>
-      </c>
-      <c r="H30" t="n" s="777">
-        <v>1.1089317966988457</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="766">
-        <v>22</v>
-      </c>
-      <c r="B31" t="n" s="771">
-        <v>37.0</v>
-      </c>
-      <c r="C31" t="n" s="772">
-        <v>0.551312053576174</v>
-      </c>
-      <c r="D31" t="n" s="773">
-        <v>0.37905098369355844</v>
-      </c>
-      <c r="E31" t="n" s="774">
-        <v>0.40597262888632973</v>
-      </c>
-      <c r="F31" t="n" s="775">
-        <v>0.3060487813018373</v>
-      </c>
-      <c r="G31" t="n" s="776">
-        <v>0.8648648648648649</v>
-      </c>
-      <c r="H31" t="n" s="777">
-        <v>1.5663503610155212</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="766">
-        <v>23</v>
-      </c>
-      <c r="B32" t="n" s="771">
-        <v>37.0</v>
-      </c>
-      <c r="C32" t="n" s="772">
-        <v>0.5575129769145345</v>
-      </c>
-      <c r="D32" t="n" s="773">
-        <v>0.3928061593286628</v>
-      </c>
-      <c r="E32" t="n" s="774">
-        <v>0.4213577607989329</v>
-      </c>
-      <c r="F32" t="n" s="775">
-        <v>0.25857184960221025</v>
-      </c>
-      <c r="G32" t="n" s="776">
-        <v>1.054054054054054</v>
-      </c>
-      <c r="H32" t="n" s="777">
-        <v>1.8551122449710264</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="766">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="771">
-        <v>37.0</v>
-      </c>
-      <c r="C33" t="n" s="772">
-        <v>0.4689905602521892</v>
-      </c>
-      <c r="D33" t="n" s="773">
-        <v>0.5141371727719962</v>
-      </c>
-      <c r="E33" t="n" s="774">
-        <v>0.44806479686878004</v>
-      </c>
-      <c r="F33" t="n" s="775">
-        <v>0.21479082921683895</v>
-      </c>
-      <c r="G33" t="n" s="776">
-        <v>1.4594594594594594</v>
-      </c>
-      <c r="H33" t="n" s="777">
-        <v>1.5201351291285952</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="766">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="771">
-        <v>37.0</v>
-      </c>
-      <c r="C34" t="n" s="772">
-        <v>0.40781151439475993</v>
-      </c>
-      <c r="D34" t="n" s="773">
-        <v>0.47359932062540133</v>
-      </c>
-      <c r="E34" t="n" s="774">
-        <v>0.38759887442055524</v>
-      </c>
-      <c r="F34" t="n" s="775">
-        <v>0.21031258417012266</v>
-      </c>
-      <c r="G34" t="n" s="776">
-        <v>2.5135135135135136</v>
-      </c>
-      <c r="H34" t="n" s="777">
-        <v>1.1695588347184027</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="781">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38"/>
-      <c r="B38" t="s" s="795">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="795">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s" s="795">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s" s="795">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="795">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="795">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="795">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="791">
-        <v>18</v>
-      </c>
-      <c r="B39" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="C39" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D39" t="n" s="798">
+      <c r="B45" t="n" s="795">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="C45" t="n" s="796">
         <v>0.02702702702702703</v>
       </c>
-      <c r="E39" t="n" s="799">
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="F39" t="n" s="800">
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="G39" t="n" s="801">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="H39" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="791">
-        <v>19</v>
-      </c>
-      <c r="B40" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="C40" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D40" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E40" t="n" s="799">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="F40" t="n" s="800">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="G40" t="n" s="801">
-        <v>0.5135135135135135</v>
-      </c>
-      <c r="H40" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="791">
-        <v>20</v>
-      </c>
-      <c r="B41" t="n" s="796">
+      <c r="D45" t="n" s="797">
+        <v>0.5675675675675675</v>
+      </c>
+      <c r="E45" t="n" s="798">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="F45" t="n" s="799">
         <v>0.05405405405405406</v>
       </c>
-      <c r="C41" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D41" t="n" s="798">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="E41" t="n" s="799">
-        <v>0.35135135135135137</v>
-      </c>
-      <c r="F41" t="n" s="800">
-        <v>0.5135135135135135</v>
-      </c>
-      <c r="G41" t="n" s="801">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="H41" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="791">
-        <v>21</v>
-      </c>
-      <c r="B42" t="n" s="796">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="C42" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D42" t="n" s="798">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="E42" t="n" s="799">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="F42" t="n" s="800">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="G42" t="n" s="801">
-        <v>0.5135135135135135</v>
-      </c>
-      <c r="H42" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="791">
-        <v>28</v>
-      </c>
-      <c r="B43" t="n" s="796">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="C43" t="n" s="797">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="D43" t="n" s="798">
-        <v>0.5405405405405406</v>
-      </c>
-      <c r="E43" t="n" s="799">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="F43" t="n" s="800">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="G43" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="791">
-        <v>29</v>
-      </c>
-      <c r="B44" t="n" s="796">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="C44" t="n" s="797">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="D44" t="n" s="798">
-        <v>0.5675675675675675</v>
-      </c>
-      <c r="E44" t="n" s="799">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="F44" t="n" s="800">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G44" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H44" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="791">
-        <v>22</v>
-      </c>
-      <c r="B45" t="n" s="796">
-        <v>0.7297297297297297</v>
-      </c>
-      <c r="C45" t="n" s="797">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="D45" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="799">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="F45" t="n" s="800">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="G45" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H45" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="791">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="796">
-        <v>0.7297297297297297</v>
-      </c>
-      <c r="C46" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="798">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="E46" t="n" s="799">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="F46" t="n" s="800">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="G46" t="n" s="801">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="H46" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="791">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="796">
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="C47" t="n" s="797">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="D47" t="n" s="798">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="E47" t="n" s="799">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="F47" t="n" s="800">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="G47" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="791">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="796">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="C48" t="n" s="797">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="D48" t="n" s="798">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="E48" t="n" s="799">
-        <v>0.4594594594594595</v>
-      </c>
-      <c r="F48" t="n" s="800">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="G48" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="802">
+      <c r="G45" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H45" t="n" s="801">
         <v>0.0</v>
       </c>
     </row>
